--- a/dia1/readExcel.xlsx
+++ b/dia1/readExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiahidalgo/Desktop/openbootcamp/retos/dia1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2D038-FE62-F94A-8D94-2D23E9B75367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611E1BF-84B8-214A-9721-A07240A9FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1780" windowWidth="13240" windowHeight="9360" xr2:uid="{0B6C2704-D14A-0D40-8B46-1C5AB64EF01D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>nombre</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>laia@laia.es</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>clara@clara.es</t>
+  </si>
+  <si>
+    <t>clara</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>alex@alex.es</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6925E2-FCFC-F543-A935-2FD02D086AAB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,12 +493,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FE4C5921-11B7-F24E-87E4-61E73814631A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{935713F5-0D4D-8F4F-B523-E5D4C4850BDF}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{3327667E-8A51-2843-B157-47B0F8B0BD7C}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{ED64C26C-B12F-3040-81CB-3E023F43D687}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B8B883FA-954C-1245-B284-D3B510166D31}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{54981A39-8C55-5C49-BEEE-079BF1905476}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{BAA908E1-FD93-A94C-968A-B31306DDEF24}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{2D0C30A1-95F0-AE4B-AFB8-3B4DAB7A8099}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{BC65468D-8935-E14B-ABC1-014A424BA283}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dia1/readExcel.xlsx
+++ b/dia1/readExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiahidalgo/Desktop/openbootcamp/retos/dia1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611E1BF-84B8-214A-9721-A07240A9FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C145F203-415D-5F49-BEC4-DF21E6539AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1780" windowWidth="13240" windowHeight="9360" xr2:uid="{0B6C2704-D14A-0D40-8B46-1C5AB64EF01D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>nombre</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>clara@clara.es</t>
-  </si>
-  <si>
-    <t>clara</t>
   </si>
   <si>
     <t>alex</t>
@@ -444,7 +441,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +516,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -527,10 +524,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
